--- a/Workflow.xlsx
+++ b/Workflow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sxDaten\GitHub\DataFactory-Knowledge-Center\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8F99CA-BE00-4880-BCF7-DAA99702A110}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A899D6-0CF7-4181-83A5-8FE528988D0E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13560" xr2:uid="{5D7D5AFC-1AED-493E-A7A3-C9DF17F7CF75}"/>
   </bookViews>
@@ -26,9 +26,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Workflowübersicht</t>
+    <t>DataFactory Workflowübersicht für größere Projekte</t>
+  </si>
+  <si>
+    <t>ca. ab 10 Tage Jahresvolumen</t>
+  </si>
+  <si>
+    <t>Workflowübersicht für größere Projekte</t>
+  </si>
+  <si>
+    <t>ca. ab 10 Tagen Jahresvolumen</t>
   </si>
 </sst>
 </file>
@@ -96,15 +105,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>128591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -120,8 +129,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2300287" y="11796716"/>
-          <a:ext cx="3124200" cy="1785934"/>
+          <a:off x="1019175" y="11434766"/>
+          <a:ext cx="2886074" cy="1785934"/>
           <a:chOff x="1681163" y="1966915"/>
           <a:chExt cx="3124200" cy="1785934"/>
         </a:xfrm>
@@ -434,16 +443,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>547689</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>104777</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>233364</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>80964</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>614363</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>42863</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>300038</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -458,10 +467,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4610102" y="1095377"/>
-          <a:ext cx="3114674" cy="661986"/>
+          <a:off x="5062539" y="1433514"/>
+          <a:ext cx="3114674" cy="919161"/>
           <a:chOff x="1447802" y="1028703"/>
-          <a:chExt cx="3114674" cy="578250"/>
+          <a:chExt cx="3114674" cy="802894"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -510,7 +519,7 @@
           <a:p>
             <a:r>
               <a:rPr lang="de-DE" sz="1100" b="1"/>
-              <a:t>Vertrieb</a:t>
+              <a:t>Vertrieb - Musterhausaustellung</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -529,7 +538,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="1457326" y="1302311"/>
-            <a:ext cx="3105150" cy="304642"/>
+            <a:ext cx="3105150" cy="529286"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartAlternateProcess">
             <a:avLst/>
@@ -573,7 +582,7 @@
                   </a:schemeClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Kauf herbeiführen und Projektgegebenheiten</a:t>
+              <a:t>Inspirator und Architekt zeigen</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="de-DE" sz="900" baseline="0">
@@ -584,7 +593,7 @@
                   </a:schemeClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t> kennenlernen</a:t>
+              <a:t> die Potentiale von DataFactory und wecken den Kaufwunsch.</a:t>
             </a:r>
             <a:endParaRPr lang="de-DE" sz="900">
               <a:solidFill>
@@ -602,16 +611,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>180976</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>80965</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123827</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -626,8 +635,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2719389" y="3243265"/>
-          <a:ext cx="3114674" cy="661986"/>
+          <a:off x="5124451" y="4371977"/>
+          <a:ext cx="3114674" cy="904873"/>
           <a:chOff x="1447802" y="1028703"/>
           <a:chExt cx="3114674" cy="578250"/>
         </a:xfrm>
@@ -678,7 +687,7 @@
           <a:p>
             <a:r>
               <a:rPr lang="de-DE" sz="1100" b="1"/>
-              <a:t>Konzeption</a:t>
+              <a:t>Konzeption - Architektur</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -741,7 +750,7 @@
                   </a:schemeClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Implementierbares Konzept erstellen</a:t>
+              <a:t>Der Architekt erstellt ein implementierbares Konzept.</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -751,16 +760,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>338139</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>280990</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>728663</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>169093</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>671514</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>178618</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -775,7 +784,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5162552" y="2362199"/>
+          <a:off x="5872165" y="3095624"/>
           <a:ext cx="390524" cy="245294"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -821,16 +830,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>557213</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>42863</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>271463</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>585788</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>80965</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9057</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -843,13 +852,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="24" idx="2"/>
-          <a:endCxn id="32" idx="0"/>
+          <a:endCxn id="33" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3857626" y="1757363"/>
-          <a:ext cx="2314575" cy="1485902"/>
+        <a:xfrm>
+          <a:off x="6624638" y="2352675"/>
+          <a:ext cx="61912" cy="2447457"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -877,16 +886,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76202</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57153</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19052</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142878</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>142876</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>176214</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -901,8 +910,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7948615" y="3219453"/>
-          <a:ext cx="3114674" cy="661986"/>
+          <a:off x="276227" y="4391028"/>
+          <a:ext cx="3114674" cy="900110"/>
           <a:chOff x="1447802" y="1028703"/>
           <a:chExt cx="3114674" cy="578250"/>
         </a:xfrm>
@@ -953,7 +962,7 @@
           <a:p>
             <a:r>
               <a:rPr lang="de-DE" sz="1100" b="1"/>
-              <a:t>Installation</a:t>
+              <a:t>Installation - Fundament</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -1027,7 +1036,7 @@
                   </a:schemeClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t> und Arbeitsumgebung einrichten</a:t>
+              <a:t> und Aufbau einer leistungsfähigen Arbeitsumgebung</a:t>
             </a:r>
             <a:endParaRPr lang="de-DE" sz="900">
               <a:solidFill>
@@ -1045,16 +1054,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>1836</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>25648</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>81984</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1066,14 +1075,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="33" idx="3"/>
-          <a:endCxn id="39" idx="1"/>
+          <a:stCxn id="33" idx="1"/>
+          <a:endCxn id="39" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5834063" y="3707061"/>
-          <a:ext cx="2124076" cy="23812"/>
+        <a:xfrm flipH="1">
+          <a:off x="3390901" y="5038491"/>
+          <a:ext cx="1743074" cy="15543"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1101,16 +1110,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>628652</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142877</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>585788</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1125,8 +1134,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6215065" y="3333749"/>
-          <a:ext cx="1481136" cy="390526"/>
+          <a:off x="3448052" y="5129213"/>
+          <a:ext cx="1771648" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1162,37 +1171,8 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>Auftrag zum produktive</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Baustelle</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="900" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> einrichten</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="900">
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
+            <a:t>Auftrag zur Einrichtung der Baustelle</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1200,16 +1180,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>200026</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>161928</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>14290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>100014</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1224,8 +1204,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2738439" y="4772028"/>
-          <a:ext cx="3114674" cy="661986"/>
+          <a:off x="9601201" y="4443415"/>
+          <a:ext cx="3114674" cy="795335"/>
           <a:chOff x="1447802" y="1028703"/>
           <a:chExt cx="3114674" cy="578250"/>
         </a:xfrm>
@@ -1276,7 +1256,7 @@
           <a:p>
             <a:r>
               <a:rPr lang="de-DE" sz="1100" b="1"/>
-              <a:t>Realisierung</a:t>
+              <a:t>Realisierung - Bau</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -1339,8 +1319,27 @@
                   </a:schemeClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Konzept umsetzen</a:t>
-            </a:r>
+              <a:t>Der Baumeister</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> setzt das Konzept um und kümmert sich um die Datails.</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1350,15 +1349,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>747714</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>138116</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>23816</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>52388</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>76202</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1373,10 +1372,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5572127" y="6738941"/>
-          <a:ext cx="3114674" cy="661986"/>
+          <a:off x="5095875" y="6805616"/>
+          <a:ext cx="3114674" cy="704847"/>
           <a:chOff x="1447802" y="1028703"/>
-          <a:chExt cx="3114674" cy="578250"/>
+          <a:chExt cx="3114674" cy="615689"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -1444,7 +1443,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="1457326" y="1302311"/>
-            <a:ext cx="3105150" cy="304642"/>
+            <a:ext cx="3105150" cy="342081"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartAlternateProcess">
             <a:avLst/>
@@ -1488,7 +1487,7 @@
                   </a:schemeClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>System verfügbar</a:t>
+              <a:t>Das System wird aktuell</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="de-DE" sz="900" baseline="0">
@@ -1499,7 +1498,7 @@
                   </a:schemeClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t> halten</a:t>
+              <a:t> gehalten und vor Verwitterung geschützt.</a:t>
             </a:r>
             <a:endParaRPr lang="de-DE" sz="900">
               <a:solidFill>
@@ -1517,16 +1516,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57195</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>113207</xdr:rowOff>
+      <xdr:rowOff>66441</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1538,14 +1537,71 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="33" idx="2"/>
-          <a:endCxn id="46" idx="0"/>
+          <a:stCxn id="33" idx="3"/>
+          <a:endCxn id="46" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4281488" y="3905251"/>
-          <a:ext cx="19050" cy="1180006"/>
+        <a:xfrm flipV="1">
+          <a:off x="8239125" y="5029245"/>
+          <a:ext cx="1371600" cy="9246"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>156070</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="Gerade Verbindung mit Pfeil 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE066F5B-AE7A-45C5-813D-5AA3C380121B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="2"/>
+          <a:endCxn id="52" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6657974" y="5276850"/>
+          <a:ext cx="28576" cy="1841995"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1573,72 +1629,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>100014</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>452439</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>361951</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>138116</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="57" name="Gerade Verbindung mit Pfeil 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE066F5B-AE7A-45C5-813D-5AA3C380121B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="46" idx="2"/>
-          <a:endCxn id="51" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4300538" y="5434014"/>
-          <a:ext cx="2409826" cy="1304927"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>585789</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>585787</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>452437</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>150043</xdr:rowOff>
+      <xdr:rowOff>88130</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1653,7 +1653,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5410202" y="5781674"/>
+          <a:off x="6805614" y="5719761"/>
           <a:ext cx="761998" cy="245294"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1704,373 +1704,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>295274</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>33341</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>23816</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="17" name="Gruppieren 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F32B45B3-042F-4D8E-AF82-B57B9D0D91DE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="547687" y="5367341"/>
-          <a:ext cx="3124200" cy="1785934"/>
-          <a:chOff x="1681163" y="1966915"/>
-          <a:chExt cx="3124200" cy="1785934"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="Textfeld 17">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A4C285D-E517-4B4C-A434-BE4B5FC3CC50}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1685927" y="1966915"/>
-            <a:ext cx="2276474" cy="271462"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="de-DE" sz="1100" b="1"/>
-              <a:t>Konzeptionsprozess - Architekt</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="19" name="Flussdiagramm: Alternativer Prozess 18">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65F933D2-D531-45C0-9072-F93C337A0604}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1700213" y="2452688"/>
-            <a:ext cx="3105150" cy="500063"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartAlternateProcess">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="de-DE" sz="900">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Unterschriebens</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="de-DE" sz="900" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t> Angebot übernommen</a:t>
-            </a:r>
-            <a:endParaRPr lang="de-DE" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="Textfeld 19">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6831BE95-D83F-44BA-AB69-B958B1706497}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1681163" y="2200277"/>
-            <a:ext cx="1276350" cy="285749"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="de-DE" sz="900">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Ausgangspunkt</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="21" name="Flussdiagramm: Alternativer Prozess 20">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC1387B6-8EC2-4E33-885D-80FF9ABF63D9}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1700213" y="3267076"/>
-            <a:ext cx="3105150" cy="485773"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartAlternateProcess">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="de-DE" sz="900">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Schriftliche Konzeption,</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="de-DE" sz="900" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t> welche von einer anderen Person umsetzbar ist und vom Betrieb betrieben werden kann.</a:t>
-            </a:r>
-            <a:endParaRPr lang="de-DE" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="22" name="Textfeld 21">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{379A8DE0-9D28-4888-BD36-13C46D18F79C}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1709738" y="3048002"/>
-            <a:ext cx="1276350" cy="285749"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="de-DE" sz="900">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Ziel</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>542924</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>119066</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>619124</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2085,7 +1728,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1557337" y="9253541"/>
+          <a:off x="6591299" y="16759241"/>
           <a:ext cx="3124200" cy="1785934"/>
           <a:chOff x="1681163" y="1966915"/>
           <a:chExt cx="3124200" cy="1785934"/>
@@ -2401,13 +2044,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>128591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2423,7 +2066,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2300287" y="11796716"/>
+          <a:off x="2305049" y="16502066"/>
           <a:ext cx="3124200" cy="1785934"/>
           <a:chOff x="1681163" y="1966915"/>
           <a:chExt cx="3124200" cy="1785934"/>
@@ -2937,6 +2580,18 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Sendet DSGV Erklärung zu</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="de-DE" sz="900" baseline="0">
             <a:solidFill>
               <a:schemeClr val="bg1">
@@ -2954,7 +2609,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>Dokumente werden auf Netzlaufwerk abgelegt</a:t>
+            <a:t>Dokumente werden auf dem Netzlaufwerk abgelegt</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3173,7 +2828,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>- Grobkonzept erstellen lassen oder Entscheidung für Modulkauf</a:t>
+            <a:t>- Architekten einbinden und Grobkonzept erstellen lassen</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3254,7 +2909,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="504825" y="757239"/>
+          <a:off x="509587" y="757239"/>
           <a:ext cx="3162300" cy="3990973"/>
           <a:chOff x="1414463" y="1028703"/>
           <a:chExt cx="3162300" cy="3486148"/>
@@ -3369,7 +3024,7 @@
                   </a:schemeClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Kontakt mit Verkaufschance</a:t>
+              <a:t>Ein Kontakt mit Verkaufschance ist entstanden</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -3513,7 +3168,7 @@
                   </a:schemeClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t> über den Kauf innerhalb der nächsten 6 Monate ist getroffen.</a:t>
+              <a:t> über den Kauf innerhalb der nächsten 6 Monate ist getroffen. </a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -3714,7 +3369,7 @@
                   </a:schemeClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t> Angebot liegt vor und Auftragsbestätigung wurde versendet. Übergabe an Architekt ist erfolgt.</a:t>
+              <a:t> Angebot liegt vor und Auftragsbestätigung wurde versendet. Architekt wurde zugeordnet.</a:t>
             </a:r>
             <a:endParaRPr lang="de-DE" sz="900">
               <a:solidFill>
@@ -3806,13 +3461,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>61912</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>4765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3911,6 +3566,18 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
+            <a:t>Prüft Eingang DSGVO Erklärung</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
             <a:t>Alle Projektdokumente werden in Repo überführt</a:t>
           </a:r>
         </a:p>
@@ -3973,6 +3640,1707 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>747713</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Textfeld 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A8BF2C7-448D-465C-9E18-6B3D328CA444}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4067175" y="5429249"/>
+          <a:ext cx="3795713" cy="3529013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Standard - Erstbearbeitung</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Stellt Erstkontakt innerhalb von 24 h her.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Einführungsgespräch</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="900" b="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Win 2012</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> +</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="900" b="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Installation / Zugang</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> SQL Server</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  - mindestens Version 2012</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  - sysadmin Rechte (Debugger, Agent)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  - Standard Lizenz (Agent)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Installation DataFactory</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  - Datenbank</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  - XLS Client</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  - Webclient</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Notepad ++ (Codierung)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Github Desktop</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Excel 2010+ auf Server verfügbar</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Internet auf Server verfügbar</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="900" b="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>VPN Zugriff oder Teamviewer permanent</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="900" b="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Performancetest des Servers</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="900" b="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="900" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="white">
+                  <a:lumMod val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Festlegung SQL Backup Konzept</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="900" b="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Dokumentiert Wissenstand in Mappe Projektkonzept / Passwortmanager</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="900" b="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="900" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="900" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="900" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="900" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="900" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>280987</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>114298</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Textfeld 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E634CA9-42F4-48B7-B989-7A6E2B21BBEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8158162" y="5386388"/>
+          <a:ext cx="3795713" cy="2233610"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Individuelle</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Folgebearbeitung</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Reaktion innerhalb von 24h auf Fragen (ggf. Antwort mit Termininfo)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="900" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>280986</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="39" name="Gruppieren 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9522E6A-E6CF-4937-B08E-D4DAD599371A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="538161" y="5457825"/>
+          <a:ext cx="3167064" cy="2905125"/>
+          <a:chOff x="1400174" y="1028703"/>
+          <a:chExt cx="3167064" cy="2537537"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="Textfeld 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82FAA398-34C2-43D1-8961-68960066B8FC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1447802" y="1028703"/>
+            <a:ext cx="2276474" cy="271462"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1100" b="1"/>
+              <a:t>IT-Einrichtung - Installateur</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="46" name="Flussdiagramm: Alternativer Prozess 45">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{057BA523-CF92-4742-8745-ED158D3DCB75}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1462088" y="1514476"/>
+            <a:ext cx="3105150" cy="304642"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartAlternateProcess">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Auftrag</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> zur Einrichtung</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="47" name="Textfeld 46">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D14272F-949E-4AD1-AE75-D62BD25A6ECA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1443037" y="1262065"/>
+            <a:ext cx="1766887" cy="285749"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Übernahme</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> der Verantwortung</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="48" name="Flussdiagramm: Alternativer Prozess 47">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B3D893C-6EAC-48CB-B932-FFEACC8D23D2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1414463" y="2079259"/>
+            <a:ext cx="3105150" cy="933624"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartAlternateProcess">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Eine</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> leistungsfähige Systemumgebung für angenehme, produktive Arbeit wird geschaffen:</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>- alle saxess Komponenten sind installiert</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>- Hilfsprogramme sind installiert</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>- Leistungsfähigkeit der Umgebung ist getetest</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>- vollwertiger Remotezugriff ist eingerichtet</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="49" name="Textfeld 48">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA2FCC65-41F5-4BC0-9EB4-53BBA55C2E35}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1414463" y="1901786"/>
+            <a:ext cx="1276350" cy="285749"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Ziel</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="50" name="Flussdiagramm: Alternativer Prozess 49">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3000BC6-D109-45A3-8B53-7FC29B0108C4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1423988" y="3317519"/>
+            <a:ext cx="3105150" cy="248721"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartAlternateProcess">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Checkliste</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> ist erfüllt und alle Komponenten sind dokumentiert</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="51" name="Textfeld 50">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F64A15FE-EC82-4582-B815-BE7398804759}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1400174" y="3103253"/>
+            <a:ext cx="1766887" cy="214266"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Ende</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> der Verantwortung</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>252412</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>366712</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>19048</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="60" name="Gruppieren 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22B39C15-20E6-48F1-A854-66861C1E79C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="509587" y="9686925"/>
+          <a:ext cx="3162300" cy="3990973"/>
+          <a:chOff x="1414463" y="1028703"/>
+          <a:chExt cx="3162300" cy="3486148"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="61" name="Textfeld 60">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D412174-DFB0-493C-A6C4-410DBBEE9DF9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1447802" y="1028703"/>
+            <a:ext cx="2276474" cy="271462"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1100" b="1"/>
+              <a:t>Konzeptionsprozess - Architekt</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="62" name="Flussdiagramm: Alternativer Prozess 61">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0477019-C620-4365-B389-14729CBBA8EB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1462088" y="1514476"/>
+            <a:ext cx="3105150" cy="346244"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartAlternateProcess">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Unterschriebens</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Angebot liegt vor und Rolle Architekt wurde zugeordnet.</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="63" name="Textfeld 62">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAD2F767-FCD0-4370-AD02-846EB2AC32A2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1443037" y="1262065"/>
+            <a:ext cx="1766887" cy="285749"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Übernahme</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> der Verantwortung</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="64" name="Flussdiagramm: Alternativer Prozess 63">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF8B789C-5CB3-422C-B523-9C8F1663CBDF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1414463" y="2079259"/>
+            <a:ext cx="3105150" cy="1607736"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartAlternateProcess">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Eine schriftliche Konzeption</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> wird erstellt, welche von einer anderen Person umsetzbar ist und vom Betrieb übernommen werden kann</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Der Architekt setzt nicht selbst um.</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="65" name="Textfeld 64">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26EFAF59-B435-4D68-A002-4B04B86BB2EB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1414463" y="1901786"/>
+            <a:ext cx="1276350" cy="285749"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Ziel</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="66" name="Flussdiagramm: Alternativer Prozess 65">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41EA40E9-9677-4BE4-98B3-700172F6BAEE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1471613" y="4005263"/>
+            <a:ext cx="3105150" cy="509588"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartAlternateProcess">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Abnahme</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> des Projektes durch den Kunden ist erfolgt und Projekt wurde dem Betrieb übergeben.</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="67" name="Textfeld 66">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6B55303-D0E0-4170-9FBD-85F06F267071}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1457324" y="3790997"/>
+            <a:ext cx="1766887" cy="214266"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Ende</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> der Verantwortung</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4275,20 +5643,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16457D7B-73AA-4F4F-95F4-CC74DE17CD06}">
-  <dimension ref="B2"/>
+  <dimension ref="B2:B3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+      <selection activeCell="M39" sqref="M39:M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.53125" customWidth="1"/>
+    <col min="1" max="1" width="3.59765625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" ht="21" x14ac:dyDescent="0.65">
       <c r="B2" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4300,20 +5674,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A8B13FE-13BB-46FF-9630-A74C94B60439}">
-  <dimension ref="B2"/>
+  <dimension ref="B2:B3"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="M79" sqref="M78:M79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.53125" customWidth="1"/>
+    <col min="1" max="1" width="3.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" ht="21" x14ac:dyDescent="0.65">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Workflow.xlsx
+++ b/Workflow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sxDaten\GitHub\DataFactory-Knowledge-Center\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A899D6-0CF7-4181-83A5-8FE528988D0E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C10286-C53E-400A-A9B8-E33D8275C726}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13560" xr2:uid="{5D7D5AFC-1AED-493E-A7A3-C9DF17F7CF75}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Workflow I" sheetId="2" r:id="rId1"/>
     <sheet name="Workflow II" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Workflow II'!$A$1:$P$78</definedName>
+  </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>DataFactory Workflowübersicht für größere Projekte</t>
   </si>
@@ -38,6 +41,12 @@
   </si>
   <si>
     <t>ca. ab 10 Tagen Jahresvolumen</t>
+  </si>
+  <si>
+    <t>Tickets vergehen und haben keinen Wert</t>
+  </si>
+  <si>
+    <t>Alle Werte sammeln sich im Repository</t>
   </si>
 </sst>
 </file>
@@ -105,344 +114,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>128591</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="14" name="Gruppieren 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CACEBE8-7DC1-4B85-9AEC-41C93D582E95}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1019175" y="11434766"/>
-          <a:ext cx="2886074" cy="1785934"/>
-          <a:chOff x="1681163" y="1966915"/>
-          <a:chExt cx="3124200" cy="1785934"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="Textfeld 14">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B243E6E9-D4AD-42BE-AE09-76E6DB095074}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1685927" y="1966915"/>
-            <a:ext cx="2276474" cy="271462"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="de-DE" sz="1100" b="1"/>
-              <a:t>Betriebsprozess - Hausmeister</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="Flussdiagramm: Alternativer Prozess 15">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{110DEAA6-FBE6-45BE-9B67-5E2A6ED8623E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1700213" y="2452688"/>
-            <a:ext cx="3105150" cy="500063"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartAlternateProcess">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="de-DE" sz="900">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Konzeption</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="17" name="Textfeld 16">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5668C194-0F38-4C1E-978A-417A91804765}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1681163" y="2200277"/>
-            <a:ext cx="1276350" cy="285749"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="de-DE" sz="900">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Ausgangspunkt</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="Flussdiagramm: Alternativer Prozess 17">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D433A187-7FAD-4F92-951F-D16E1084BB7B}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1700213" y="3267076"/>
-            <a:ext cx="3105150" cy="485773"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartAlternateProcess">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="de-DE" sz="900">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Betriebsbereites</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="de-DE" sz="900" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t> Bauwerk.</a:t>
-            </a:r>
-            <a:endParaRPr lang="de-DE" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="19" name="Textfeld 18">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67A3D545-B51E-4FC8-AB36-DBF4C274798C}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1709738" y="3048002"/>
-            <a:ext cx="1276350" cy="285749"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="de-DE" sz="900">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Ziel</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>233364</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -467,8 +138,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5062539" y="1433514"/>
-          <a:ext cx="3114674" cy="919161"/>
+          <a:off x="4995864" y="1490664"/>
+          <a:ext cx="3114674" cy="966786"/>
           <a:chOff x="1447802" y="1028703"/>
           <a:chExt cx="3114674" cy="802894"/>
         </a:xfrm>
@@ -635,8 +306,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5124451" y="4371977"/>
-          <a:ext cx="3114674" cy="904873"/>
+          <a:off x="5057776" y="4581527"/>
+          <a:ext cx="3114674" cy="952498"/>
           <a:chOff x="1447802" y="1028703"/>
           <a:chExt cx="3114674" cy="578250"/>
         </a:xfrm>
@@ -910,8 +581,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="276227" y="4391028"/>
-          <a:ext cx="3114674" cy="900110"/>
+          <a:off x="257177" y="4600578"/>
+          <a:ext cx="3067049" cy="947735"/>
           <a:chOff x="1447802" y="1028703"/>
           <a:chExt cx="3114674" cy="578250"/>
         </a:xfrm>
@@ -1204,8 +875,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9601201" y="4443415"/>
-          <a:ext cx="3114674" cy="795335"/>
+          <a:off x="9534526" y="4662490"/>
+          <a:ext cx="3114674" cy="833435"/>
           <a:chOff x="1447802" y="1028703"/>
           <a:chExt cx="3114674" cy="578250"/>
         </a:xfrm>
@@ -1372,8 +1043,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5095875" y="6805616"/>
-          <a:ext cx="3114674" cy="704847"/>
+          <a:off x="5029200" y="7148516"/>
+          <a:ext cx="3114674" cy="742947"/>
           <a:chOff x="1447802" y="1028703"/>
           <a:chExt cx="3114674" cy="615689"/>
         </a:xfrm>
@@ -1697,6 +1368,720 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>176217</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="30" name="Gruppieren 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7BA9A0D-871A-4EF9-9A0E-D515BDFBA1CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1333500" y="9777417"/>
+          <a:ext cx="1619250" cy="1166808"/>
+          <a:chOff x="1447802" y="1028703"/>
+          <a:chExt cx="3114674" cy="966947"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="Textfeld 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BEFFF1F-EAFB-4AE7-9E43-E6A6E1E2CB2F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1447802" y="1028703"/>
+            <a:ext cx="2276474" cy="271462"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1100" b="1"/>
+              <a:t>Vertrieb</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="41" name="Flussdiagramm: Alternativer Prozess 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F57228A6-7D78-4A31-B759-4668A8A23150}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1457325" y="1302311"/>
+            <a:ext cx="3105151" cy="693339"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartAlternateProcess">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Jira</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Tickets</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Dokumente Netzlaufwerk</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>166691</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="47" name="Gruppieren 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27A2C129-ECDF-458D-A0DB-26C80F769967}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3867150" y="9767891"/>
+          <a:ext cx="2266950" cy="1157284"/>
+          <a:chOff x="1447802" y="1028703"/>
+          <a:chExt cx="4360543" cy="959055"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="48" name="Textfeld 47">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF8AFE13-FB68-4DD1-9EE4-A3C77D12D71B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1447802" y="1028703"/>
+            <a:ext cx="2276474" cy="271462"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1100" b="1"/>
+              <a:t>Realisierung</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="49" name="Flussdiagramm: Alternativer Prozess 48">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDB97917-D563-4FE8-9298-BF9860D8E273}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1457325" y="1302311"/>
+            <a:ext cx="4351020" cy="685447"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartAlternateProcess">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Jira</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Tickets</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="de-DE" sz="900" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Repository mit </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Dokumentationsmappe</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Passwortmanager</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>157166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="54" name="Gruppieren 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8623B95E-1A1F-4667-A023-FB7516335C65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7467600" y="9758366"/>
+          <a:ext cx="2266950" cy="1157284"/>
+          <a:chOff x="1447802" y="1028703"/>
+          <a:chExt cx="4360543" cy="959055"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="55" name="Textfeld 54">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32009971-4A8F-4F09-94C5-C5DF0D2BE3E1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1447802" y="1028703"/>
+            <a:ext cx="2276474" cy="271462"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1100" b="1"/>
+              <a:t>Betrieb</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="56" name="Flussdiagramm: Alternativer Prozess 55">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{066C196B-0308-4EE6-A67B-3387BB58F342}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1457325" y="1302311"/>
+            <a:ext cx="4351020" cy="685447"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartAlternateProcess">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Jira</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Tickets</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="de-DE" sz="900" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Repository mit </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Dokumentationsmappe</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Passwortmanager</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>148414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>633601</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>162702</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Gerade Verbindung mit Pfeil 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3A869AB-A18C-4B75-A649-199005D20658}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="41" idx="3"/>
+          <a:endCxn id="49" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2952750" y="10511614"/>
+          <a:ext cx="919351" cy="14288"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>138889</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>424051</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>148414</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Gerade Verbindung mit Pfeil 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F6B3496-EE2F-454E-AB4D-38C827A63F63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="49" idx="3"/>
+          <a:endCxn id="56" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6134100" y="10502089"/>
+          <a:ext cx="1338451" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1728,8 +2113,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6591299" y="16759241"/>
-          <a:ext cx="3124200" cy="1785934"/>
+          <a:off x="6572249" y="17626016"/>
+          <a:ext cx="3124200" cy="1881184"/>
           <a:chOff x="1681163" y="1966915"/>
           <a:chExt cx="3124200" cy="1785934"/>
         </a:xfrm>
@@ -2066,8 +2451,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2305049" y="16502066"/>
-          <a:ext cx="3124200" cy="1785934"/>
+          <a:off x="2285999" y="17349791"/>
+          <a:ext cx="3124200" cy="1881184"/>
           <a:chOff x="1681163" y="1966915"/>
           <a:chExt cx="3124200" cy="1785934"/>
         </a:xfrm>
@@ -2909,8 +3294,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="509587" y="757239"/>
-          <a:ext cx="3162300" cy="3990973"/>
+          <a:off x="490537" y="776289"/>
+          <a:ext cx="3162300" cy="4200523"/>
           <a:chOff x="1414463" y="1028703"/>
           <a:chExt cx="3162300" cy="3486148"/>
         </a:xfrm>
@@ -4255,8 +4640,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="538161" y="5457825"/>
-          <a:ext cx="3167064" cy="2905125"/>
+          <a:off x="519111" y="5724525"/>
+          <a:ext cx="3167064" cy="3057525"/>
           <a:chOff x="1400174" y="1028703"/>
           <a:chExt cx="3167064" cy="2537537"/>
         </a:xfrm>
@@ -4835,8 +5220,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="509587" y="9686925"/>
-          <a:ext cx="3162300" cy="3990973"/>
+          <a:off x="490537" y="10182225"/>
+          <a:ext cx="3162300" cy="4200523"/>
           <a:chOff x="1414463" y="1028703"/>
           <a:chExt cx="3162300" cy="3486148"/>
         </a:xfrm>
@@ -5643,26 +6028,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16457D7B-73AA-4F4F-95F4-CC74DE17CD06}">
-  <dimension ref="B2:B3"/>
+  <dimension ref="B2:Q53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39:M40"/>
+      <selection activeCell="Q55" sqref="Q55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="21" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:2" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q53" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -5674,30 +6069,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A8B13FE-13BB-46FF-9630-A74C94B60439}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B2:B3"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="M79" sqref="M78:M79"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S85" sqref="S85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="21" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:2" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="81" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="28" max="15" man="1"/>
+    <brk id="52" max="15" man="1"/>
+  </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>